--- a/medicine/Enfance/Marie-Claude_Monchaux/Marie-Claude_Monchaux.xlsx
+++ b/medicine/Enfance/Marie-Claude_Monchaux/Marie-Claude_Monchaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Claude Monchaux (née Vignaud), née le 8 décembre 1933 et morte le 15 novembre 2021, est auteur-illustratrice pour la jeunesse.
-En plus de ses travaux de rédaction et d'illustration, elle dirige la collection Feux des Editions Sang de la Terre[1].
-En 1987, elle tente de lancer une revue de critique de la littérature enfantine appelée Liras-tu ?, qui se veut une prolongation de son ouvrage controversé Écrits pour nuire, au profit des parents. Tentative sans lendemain qui l'incite ensuite à publier ses critiques dans Minute[2].
+En plus de ses travaux de rédaction et d'illustration, elle dirige la collection Feux des Editions Sang de la Terre.
+En 1987, elle tente de lancer une revue de critique de la littérature enfantine appelée Liras-tu ?, qui se veut une prolongation de son ouvrage controversé Écrits pour nuire, au profit des parents. Tentative sans lendemain qui l'incite ensuite à publier ses critiques dans Minute.
 Elle compte parmi les collaborateurs du journal Le Libre Journal de la France courtoise.
 </t>
         </is>
@@ -516,17 +528,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aux éditions Magnard
-La Vérité sur les bébés, 1968
+          <t>Aux éditions Magnard</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Vérité sur les bébés, 1968
 La Vérité sur l'amour, 1971
 Bébé, année zéro, 1971
 Aurélien, je suis un enfant adopté, 1977
-Alexis, le petit garçon qui n'a jamais marché, 1979
-Aux éditions Mélusine
-Coiffes d'Aunis et Saintonge, 1975
-Le Merveilleux en Aunis et Saintonge : contes et légendes, 1977
-Aux éditions Ouest-France
-Les Enfants bretons, 1977
+Alexis, le petit garçon qui n'a jamais marché, 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aux éditions Mélusine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Coiffes d'Aunis et Saintonge, 1975
+Le Merveilleux en Aunis et Saintonge : contes et légendes, 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aux éditions Ouest-France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Enfants bretons, 1977
 Les Enfants vendéens, poitevins, charentais, 1978
 Les Enfants provençaux, 1978
 Les Enfants normands, 1978
@@ -534,14 +619,116 @@
 Les Enfants alsaciens, 1980
 Les Enfants auvergnats, 1980
 Le Costume breton, 1980
-Les Enfants parisiens, 1981
-Aux éditions de l'UNI
-Écrits pour nuire : littérature enfantine et subversion, 1985
-Écrits pour tous : littérature enfantine, 1987
-Aux éditions du Sang de la Terre
-Les Chimères du manoir perdu, 1987
-Aux éditions Téqui
-Louis XIV, un petit garçon pas comme les autres, 2004.
+Les Enfants parisiens, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aux éditions de l'UNI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Écrits pour nuire : littérature enfantine et subversion, 1985
+Écrits pour tous : littérature enfantine, 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aux éditions du Sang de la Terre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Chimères du manoir perdu, 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Claude_Monchaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aux éditions Téqui</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Louis XIV, un petit garçon pas comme les autres, 2004.
 Adélaïde, une petite princesse à la cour du Roi-Soleil, 2005.
 Louis XV, le petit roi orphelin, 2005.
 Un petit garçon pas comme les autres, Louis XIV, 2005.
@@ -556,34 +743,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Marie-Claude_Monchaux</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Claude_Monchaux</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écrits pour nuire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Écrits pour nuire (1985) a été publié dans le contexte d'une campagne de censure menée contre les bibliothèques de la Ville de Paris[3]. Cet ouvrage, édité par le syndicat étudiant UNI (Union nationale inter-universitaire, proche du RPR, aujourd'hui  Les Républicains), dans le contexte de l'après 10 mai 1981 avait pour ambition d'amener parents, éducateurs et responsables des bibliothèques à faire des choix dans une production littéraire touchée selon l'auteur par « la gangrène par la subversion » : « beaucoup de parents achètent des livres sans se rendre compte qu'ils véhiculent les pires idées sur le plan moral ou social et qu'ils détruisent lentement et sciemment les valeurs du monde libre ». Il dénonce plusieurs titres publiés par des maisons d'édition jeunesse en vue[4].
-La publication de ce livre entraine dans certaines villes un mouvement de purge des livres indésirables[5] et un contrôle étroit sur les achats[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Écrits pour nuire (1985) a été publié dans le contexte d'une campagne de censure menée contre les bibliothèques de la Ville de Paris. Cet ouvrage, édité par le syndicat étudiant UNI (Union nationale inter-universitaire, proche du RPR, aujourd'hui  Les Républicains), dans le contexte de l'après 10 mai 1981 avait pour ambition d'amener parents, éducateurs et responsables des bibliothèques à faire des choix dans une production littéraire touchée selon l'auteur par « la gangrène par la subversion » : « beaucoup de parents achètent des livres sans se rendre compte qu'ils véhiculent les pires idées sur le plan moral ou social et qu'ils détruisent lentement et sciemment les valeurs du monde libre ». Il dénonce plusieurs titres publiés par des maisons d'édition jeunesse en vue.
+La publication de ce livre entraine dans certaines villes un mouvement de purge des livres indésirables et un contrôle étroit sur les achats.
 </t>
         </is>
       </c>
